--- a/Code/Results/Cases/Case_4_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.61460816078175</v>
+        <v>25.74421623169965</v>
       </c>
       <c r="C2">
-        <v>24.19408728966582</v>
+        <v>16.09076496493991</v>
       </c>
       <c r="D2">
-        <v>7.123954010024493</v>
+        <v>6.062778701963372</v>
       </c>
       <c r="E2">
-        <v>7.341518446177327</v>
+        <v>7.510895132600309</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.086641316481925</v>
+        <v>3.755202878824358</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.50060563962153</v>
+        <v>37.22399374323896</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.580879696180404</v>
+        <v>10.52096299665546</v>
       </c>
       <c r="M2">
-        <v>15.97969441404022</v>
+        <v>19.87223249274445</v>
       </c>
       <c r="N2">
-        <v>15.89765590145282</v>
+        <v>22.48800353801506</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.75751205270877</v>
+        <v>25.35068316575135</v>
       </c>
       <c r="C3">
-        <v>22.38872708188536</v>
+        <v>15.49535993910399</v>
       </c>
       <c r="D3">
-        <v>6.595948478592082</v>
+        <v>5.959005001155548</v>
       </c>
       <c r="E3">
-        <v>6.978528233354295</v>
+        <v>7.401725695681718</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.102898083481527</v>
+        <v>3.760560352911885</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.44859885924984</v>
+        <v>37.09307349668776</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.492298854040055</v>
+        <v>10.53446577749265</v>
       </c>
       <c r="M3">
-        <v>15.24995648835208</v>
+        <v>19.80497545003726</v>
       </c>
       <c r="N3">
-        <v>15.98013160306589</v>
+        <v>22.5150409596124</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.58712873714496</v>
+        <v>25.11482910260894</v>
       </c>
       <c r="C4">
-        <v>21.237175025593</v>
+        <v>15.12403024669351</v>
       </c>
       <c r="D4">
-        <v>6.268015631177091</v>
+        <v>5.896490028350224</v>
       </c>
       <c r="E4">
-        <v>6.751010338913837</v>
+        <v>7.332817514623661</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.113012575452237</v>
+        <v>3.764014561104385</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.82122554107568</v>
+        <v>37.02067894786667</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.442133925429825</v>
+        <v>10.54443621275535</v>
       </c>
       <c r="M4">
-        <v>14.80261164623487</v>
+        <v>19.76868688989041</v>
       </c>
       <c r="N4">
-        <v>16.037521792702</v>
+        <v>22.53352295997582</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.10268429933051</v>
+        <v>25.02029332850746</v>
       </c>
       <c r="C5">
-        <v>20.75674034338484</v>
+        <v>14.97153104277883</v>
       </c>
       <c r="D5">
-        <v>6.149609790681135</v>
+        <v>5.871351074616761</v>
       </c>
       <c r="E5">
-        <v>6.657072122626105</v>
+        <v>7.304274556301404</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.117174517167518</v>
+        <v>3.765463784401814</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.57011958538893</v>
+        <v>36.99319483773154</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.422714186034336</v>
+        <v>10.54892115838645</v>
       </c>
       <c r="M5">
-        <v>14.62059735747934</v>
+        <v>19.75516549987156</v>
       </c>
       <c r="N5">
-        <v>16.06249595516208</v>
+        <v>22.54152594055092</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.02179417974369</v>
+        <v>25.00469452074677</v>
       </c>
       <c r="C6">
-        <v>20.67628136371432</v>
+        <v>14.94614566422019</v>
       </c>
       <c r="D6">
-        <v>6.129847833388591</v>
+        <v>5.867198071159552</v>
       </c>
       <c r="E6">
-        <v>6.641398659413237</v>
+        <v>7.299507391435649</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.117868217712671</v>
+        <v>3.765706945280221</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.52869608487085</v>
+        <v>36.9887531426243</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.419550230070328</v>
+        <v>10.54969134814109</v>
       </c>
       <c r="M6">
-        <v>14.59039492800815</v>
+        <v>19.75299696029321</v>
       </c>
       <c r="N6">
-        <v>16.06673578410084</v>
+        <v>22.54288325619369</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.58062553957273</v>
+        <v>25.11354761473915</v>
       </c>
       <c r="C7">
-        <v>21.23074133508787</v>
+        <v>15.12197799558009</v>
       </c>
       <c r="D7">
-        <v>6.266425550677273</v>
+        <v>5.896149589001866</v>
       </c>
       <c r="E7">
-        <v>6.749748465295485</v>
+        <v>7.332434432967706</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.113068533605109</v>
+        <v>3.764033937122956</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.8178207216969</v>
+        <v>37.02030011106149</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.441867932527338</v>
+        <v>10.54449499062651</v>
       </c>
       <c r="M7">
-        <v>14.80015562659777</v>
+        <v>19.76849939914139</v>
       </c>
       <c r="N7">
-        <v>16.03785231255684</v>
+        <v>22.53362898426225</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.98053142219099</v>
+        <v>25.60740240115686</v>
       </c>
       <c r="C8">
-        <v>23.58030687876311</v>
+        <v>15.88681498597672</v>
       </c>
       <c r="D8">
-        <v>6.94471236538284</v>
+        <v>6.026768519995856</v>
       </c>
       <c r="E8">
-        <v>7.217282056354011</v>
+        <v>7.473649021392649</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.092223449649882</v>
+        <v>3.75701606822645</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.13393769760371</v>
+        <v>37.17719929919944</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.549435733722079</v>
+        <v>10.52526988136639</v>
       </c>
       <c r="M8">
-        <v>15.7279781184904</v>
+        <v>19.84800777921816</v>
       </c>
       <c r="N8">
-        <v>15.92462209600213</v>
+        <v>22.49693471891529</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.64307080526631</v>
+        <v>26.61611010436492</v>
       </c>
       <c r="C9">
-        <v>27.86562960047115</v>
+        <v>17.33053644191845</v>
       </c>
       <c r="D9">
-        <v>8.191123679257476</v>
+        <v>6.290940241805155</v>
       </c>
       <c r="E9">
-        <v>8.101090539144504</v>
+        <v>7.735261523358397</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.052043985258273</v>
+        <v>3.744552127366935</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.87040930087886</v>
+        <v>37.547841057315</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.795866018951164</v>
+        <v>10.50091609420936</v>
       </c>
       <c r="M9">
-        <v>17.55147410864136</v>
+        <v>20.04326924932568</v>
       </c>
       <c r="N9">
-        <v>15.76189140913657</v>
+        <v>22.43997235886866</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.01632844694272</v>
+        <v>27.37420667513496</v>
       </c>
       <c r="C10">
-        <v>30.85163156963697</v>
+        <v>18.34461137327153</v>
       </c>
       <c r="D10">
-        <v>9.053473684282237</v>
+        <v>6.487898922319217</v>
       </c>
       <c r="E10">
-        <v>8.737810962683811</v>
+        <v>7.91762031994913</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.022359727949662</v>
+        <v>3.736173983709579</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.9938804244693</v>
+        <v>37.85780658525731</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.001769115632267</v>
+        <v>10.49118419378899</v>
       </c>
       <c r="M10">
-        <v>19.22763321336527</v>
+        <v>20.2101038005443</v>
       </c>
       <c r="N10">
-        <v>15.68801537879711</v>
+        <v>22.40736228603944</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.52001178863472</v>
+        <v>27.7211856491044</v>
       </c>
       <c r="C11">
-        <v>32.18471153622983</v>
+        <v>18.79364858574137</v>
       </c>
       <c r="D11">
-        <v>9.437001994082292</v>
+        <v>6.577704837702053</v>
       </c>
       <c r="E11">
-        <v>9.027175676212194</v>
+        <v>7.998341107015956</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.008653568842949</v>
+        <v>3.732529094974152</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>36.9909594268096</v>
+        <v>38.00679360517035</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.101739421960951</v>
+        <v>10.48853291993664</v>
       </c>
       <c r="M11">
-        <v>20.03832722100265</v>
+        <v>20.29091804085894</v>
       </c>
       <c r="N11">
-        <v>15.66699866239516</v>
+        <v>22.39455507480939</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.08599959548618</v>
+        <v>27.85275227628241</v>
       </c>
       <c r="C12">
-        <v>32.68693926530354</v>
+        <v>18.96177078208355</v>
       </c>
       <c r="D12">
-        <v>9.581266238422645</v>
+        <v>6.611708233730114</v>
       </c>
       <c r="E12">
-        <v>9.136985589792019</v>
+        <v>8.028578536834234</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.003416775129769</v>
+        <v>3.731172589033133</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.37378282212715</v>
+        <v>38.06433838430628</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.14059790702834</v>
+        <v>10.48778448377348</v>
       </c>
       <c r="M12">
-        <v>20.34298165310869</v>
+        <v>20.32221229497195</v>
       </c>
       <c r="N12">
-        <v>15.66112963861054</v>
+        <v>22.38999861951777</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.96423759952321</v>
+        <v>27.82441139480975</v>
       </c>
       <c r="C13">
-        <v>32.57887101109642</v>
+        <v>18.92565022720068</v>
       </c>
       <c r="D13">
-        <v>9.55023421319922</v>
+        <v>6.604385708617768</v>
       </c>
       <c r="E13">
-        <v>9.113320511304273</v>
+        <v>8.022081160698358</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.004547001744982</v>
+        <v>3.731463684289684</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.2910863688189</v>
+        <v>38.05189533760593</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.132182717345375</v>
+        <v>10.487934305388</v>
       </c>
       <c r="M13">
-        <v>20.27746256133666</v>
+        <v>20.31544202158909</v>
       </c>
       <c r="N13">
-        <v>15.66229565033172</v>
+        <v>22.39096685707552</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.56663792913572</v>
+        <v>27.73200698160717</v>
       </c>
       <c r="C14">
-        <v>32.22607496707789</v>
+        <v>18.80751936109717</v>
       </c>
       <c r="D14">
-        <v>9.448888259075936</v>
+        <v>6.580502591781577</v>
       </c>
       <c r="E14">
-        <v>9.036203288901612</v>
+        <v>8.000835414122324</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.008223781229798</v>
+        <v>3.732417019830474</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.02234396538719</v>
+        <v>38.01150539787078</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.104915627585412</v>
+        <v>10.48846622338166</v>
       </c>
       <c r="M14">
-        <v>20.06343451668692</v>
+        <v>20.29347887146867</v>
       </c>
       <c r="N14">
-        <v>15.6664721364956</v>
+        <v>22.39417432260512</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.32268475161713</v>
+        <v>27.67542533676466</v>
       </c>
       <c r="C15">
-        <v>32.00967633260504</v>
+        <v>18.73490672063639</v>
       </c>
       <c r="D15">
-        <v>9.386694277527967</v>
+        <v>6.565871960722689</v>
       </c>
       <c r="E15">
-        <v>8.989006574821424</v>
+        <v>7.987778593351457</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.010469269383561</v>
+        <v>3.733004050652058</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>36.85844258185249</v>
+        <v>37.98691145112826</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.088347431393011</v>
+        <v>10.48882532201491</v>
       </c>
       <c r="M15">
-        <v>19.93205049053826</v>
+        <v>20.2801153896033</v>
       </c>
       <c r="N15">
-        <v>15.66931171455132</v>
+        <v>22.39617724641516</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.91751974955436</v>
+        <v>27.35156208715942</v>
       </c>
       <c r="C16">
-        <v>30.76408809003688</v>
+        <v>18.315005208286</v>
       </c>
       <c r="D16">
-        <v>9.028256443120492</v>
+        <v>6.482031143229813</v>
       </c>
       <c r="E16">
-        <v>8.718916495007205</v>
+        <v>7.912299323814723</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.023249971766924</v>
+        <v>3.73641551736671</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.92940608465561</v>
+        <v>37.84822878783662</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.995370346846938</v>
+        <v>10.49139321212103</v>
       </c>
       <c r="M16">
-        <v>19.17429194728183</v>
+        <v>20.20492008002874</v>
       </c>
       <c r="N16">
-        <v>15.68966484363188</v>
+        <v>22.40824021818311</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.04824636160578</v>
+        <v>27.15333026064725</v>
       </c>
       <c r="C17">
-        <v>29.99416868662589</v>
+        <v>18.05415057965463</v>
       </c>
       <c r="D17">
-        <v>8.806311942210597</v>
+        <v>6.430626235484764</v>
       </c>
       <c r="E17">
-        <v>8.55332664930812</v>
+        <v>7.8654166608647</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.031027313418434</v>
+        <v>3.73855081844337</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.36792091041308</v>
+        <v>37.76518143971042</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.940007945079685</v>
+        <v>10.49342351284188</v>
       </c>
       <c r="M17">
-        <v>18.70462816290318</v>
+        <v>20.16003950444234</v>
       </c>
       <c r="N17">
-        <v>15.70555744626304</v>
+        <v>22.41616099797293</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.54528867782451</v>
+        <v>27.03951948215953</v>
       </c>
       <c r="C18">
-        <v>29.54887832747189</v>
+        <v>17.90296682729386</v>
       </c>
       <c r="D18">
-        <v>8.677810583424158</v>
+        <v>6.401081081080674</v>
       </c>
       <c r="E18">
-        <v>8.458037074515373</v>
+        <v>7.838241082159385</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.035482790877994</v>
+        <v>3.739794658115768</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.04783801985148</v>
+        <v>37.71816751822355</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.90875152358511</v>
+        <v>10.49475843015059</v>
       </c>
       <c r="M18">
-        <v>18.43254968871283</v>
+        <v>20.13468954429123</v>
       </c>
       <c r="N18">
-        <v>15.71586390674133</v>
+        <v>22.42090752711835</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.37445796212314</v>
+        <v>27.00102470220538</v>
       </c>
       <c r="C19">
-        <v>29.39766085149037</v>
+        <v>17.85158661256949</v>
       </c>
       <c r="D19">
-        <v>8.634149216500084</v>
+        <v>6.391082367209426</v>
       </c>
       <c r="E19">
-        <v>8.425758387571456</v>
+        <v>7.82900410842365</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.036988748202066</v>
+        <v>3.740218498128564</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.93993611104194</v>
+        <v>37.70237930496248</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.898266809220933</v>
+        <v>10.49523911019085</v>
       </c>
       <c r="M19">
-        <v>18.34007989901722</v>
+        <v>20.12618666714145</v>
       </c>
       <c r="N19">
-        <v>15.71954602233729</v>
+        <v>22.42254731839924</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.14108329843692</v>
+        <v>27.17441192279211</v>
       </c>
       <c r="C20">
-        <v>30.07637489603531</v>
+        <v>18.08203889527938</v>
       </c>
       <c r="D20">
-        <v>8.83002382285186</v>
+        <v>6.436096392448699</v>
       </c>
       <c r="E20">
-        <v>8.570957034213491</v>
+        <v>7.870429187453008</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.030201363704887</v>
+        <v>3.738321891485984</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.42739018402855</v>
+        <v>37.77394421564732</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.94584003607097</v>
+        <v>10.4931900837374</v>
       </c>
       <c r="M20">
-        <v>18.75482174660375</v>
+        <v>20.16476919077426</v>
       </c>
       <c r="N20">
-        <v>15.70374318138313</v>
+        <v>22.41529806682195</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.68350627627157</v>
+        <v>27.75914472397474</v>
       </c>
       <c r="C21">
-        <v>32.32976019840628</v>
+        <v>18.84227045644869</v>
       </c>
       <c r="D21">
-        <v>9.478679729829695</v>
+        <v>6.587518020577794</v>
       </c>
       <c r="E21">
-        <v>9.058845595186042</v>
+        <v>8.007084819429968</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.007145243443678</v>
+        <v>3.732136359442817</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.10113018806103</v>
+        <v>38.02333850448517</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.112896570637497</v>
+        <v>10.48830304969789</v>
       </c>
       <c r="M21">
-        <v>20.1263580939395</v>
+        <v>20.29991134231054</v>
       </c>
       <c r="N21">
-        <v>15.66518618629706</v>
+        <v>22.39322423586498</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.32582280087824</v>
+        <v>28.14225297670295</v>
       </c>
       <c r="C22">
-        <v>33.78810652072657</v>
+        <v>19.32788556922589</v>
       </c>
       <c r="D22">
-        <v>9.897143327702143</v>
+        <v>6.686441696534928</v>
       </c>
       <c r="E22">
-        <v>9.379255054876312</v>
+        <v>8.094471412458743</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.991794277638097</v>
+        <v>3.728232010205743</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.22617459064194</v>
+        <v>38.19288775271444</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.227979220159009</v>
+        <v>10.48659862696417</v>
       </c>
       <c r="M22">
-        <v>21.00946412270269</v>
+        <v>20.39225784684667</v>
       </c>
       <c r="N22">
-        <v>15.6523396301624</v>
+        <v>22.38050848588662</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.45065372773106</v>
+        <v>27.93773618301501</v>
       </c>
       <c r="C23">
-        <v>33.01066208756173</v>
+        <v>19.06977800970495</v>
       </c>
       <c r="D23">
-        <v>9.674189734586749</v>
+        <v>6.633658784729016</v>
       </c>
       <c r="E23">
-        <v>9.207994475382858</v>
+        <v>8.048010394224299</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.000020018075071</v>
+        <v>3.730303247398366</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.62254189128194</v>
+        <v>38.10180378645524</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.165979775664405</v>
+        <v>10.48737197544478</v>
       </c>
       <c r="M23">
-        <v>20.53912885147765</v>
+        <v>20.34260820279565</v>
       </c>
       <c r="N23">
-        <v>15.65795810286435</v>
+        <v>22.38713797430797</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.09912176207827</v>
+        <v>27.16488040949577</v>
       </c>
       <c r="C24">
-        <v>30.03921780994677</v>
+        <v>18.06943436019825</v>
       </c>
       <c r="D24">
-        <v>8.819306513814666</v>
+        <v>6.433623306304082</v>
       </c>
       <c r="E24">
-        <v>8.562986636538939</v>
+        <v>7.868163715369134</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.030574823580646</v>
+        <v>3.73842533880667</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.40049570116013</v>
+        <v>37.76998028583325</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.943201572476604</v>
+        <v>10.49329509479463</v>
       </c>
       <c r="M24">
-        <v>18.7321356928009</v>
+        <v>20.16262948901749</v>
       </c>
       <c r="N24">
-        <v>15.70455978784606</v>
+        <v>22.4156875977073</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.3679830157278</v>
+        <v>26.33969700363364</v>
       </c>
       <c r="C25">
-        <v>26.7377278183237</v>
+        <v>16.94735122459267</v>
       </c>
       <c r="D25">
-        <v>7.864143614204158</v>
+        <v>6.218825491111494</v>
       </c>
       <c r="E25">
-        <v>7.8648845344061</v>
+        <v>7.666182077543512</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.062893841782939</v>
+        <v>3.747786248990258</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.11198092658215</v>
+        <v>37.44089830721658</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.725098813771675</v>
+        <v>10.50607280430408</v>
       </c>
       <c r="M25">
-        <v>17.05771965981498</v>
+        <v>19.98629094293643</v>
       </c>
       <c r="N25">
-        <v>15.79867713702757</v>
+        <v>22.45376670094358</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.74421623169965</v>
+        <v>28.61460816078176</v>
       </c>
       <c r="C2">
-        <v>16.09076496493991</v>
+        <v>24.19408728966571</v>
       </c>
       <c r="D2">
-        <v>6.062778701963372</v>
+        <v>7.123954010024537</v>
       </c>
       <c r="E2">
-        <v>7.510895132600309</v>
+        <v>7.34151844617734</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.755202878824358</v>
+        <v>2.086641316482587</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.22399374323896</v>
+        <v>31.50060563962175</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.52096299665546</v>
+        <v>6.580879696180434</v>
       </c>
       <c r="M2">
-        <v>19.87223249274445</v>
+        <v>15.97969441404027</v>
       </c>
       <c r="N2">
-        <v>22.48800353801506</v>
+        <v>15.89765590145294</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.35068316575135</v>
+        <v>26.75751205270881</v>
       </c>
       <c r="C3">
-        <v>15.49535993910399</v>
+        <v>22.38872708188549</v>
       </c>
       <c r="D3">
-        <v>5.959005001155548</v>
+        <v>6.595948478592062</v>
       </c>
       <c r="E3">
-        <v>7.401725695681718</v>
+        <v>6.978528233354524</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.760560352911885</v>
+        <v>2.102898083481797</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.09307349668776</v>
+        <v>30.44859885924986</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.53446577749265</v>
+        <v>6.492298854040085</v>
       </c>
       <c r="M3">
-        <v>19.80497545003726</v>
+        <v>15.2499564883521</v>
       </c>
       <c r="N3">
-        <v>22.5150409596124</v>
+        <v>15.98013160306581</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.11482910260894</v>
+        <v>25.58712873714497</v>
       </c>
       <c r="C4">
-        <v>15.12403024669351</v>
+        <v>21.23717502559313</v>
       </c>
       <c r="D4">
-        <v>5.896490028350224</v>
+        <v>6.268015631177056</v>
       </c>
       <c r="E4">
-        <v>7.332817514623661</v>
+        <v>6.751010338914061</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.764014561104385</v>
+        <v>2.113012575452242</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.02067894786667</v>
+        <v>29.82122554107548</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.54443621275535</v>
+        <v>6.442133925429867</v>
       </c>
       <c r="M4">
-        <v>19.76868688989041</v>
+        <v>14.80261164623481</v>
       </c>
       <c r="N4">
-        <v>22.53352295997582</v>
+        <v>16.03752179270182</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.02029332850746</v>
+        <v>25.10268429933055</v>
       </c>
       <c r="C5">
-        <v>14.97153104277883</v>
+        <v>20.75674034338486</v>
       </c>
       <c r="D5">
-        <v>5.871351074616761</v>
+        <v>6.149609790681134</v>
       </c>
       <c r="E5">
-        <v>7.304274556301404</v>
+        <v>6.657072122626226</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.765463784401814</v>
+        <v>2.117174517167912</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.99319483773154</v>
+        <v>29.57011958538904</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.54892115838645</v>
+        <v>6.422714186034339</v>
       </c>
       <c r="M5">
-        <v>19.75516549987156</v>
+        <v>14.6205973574794</v>
       </c>
       <c r="N5">
-        <v>22.54152594055092</v>
+        <v>16.06249595516218</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.00469452074677</v>
+        <v>25.02179417974374</v>
       </c>
       <c r="C6">
-        <v>14.94614566422019</v>
+        <v>20.67628136371416</v>
       </c>
       <c r="D6">
-        <v>5.867198071159552</v>
+        <v>6.129847833388634</v>
       </c>
       <c r="E6">
-        <v>7.299507391435649</v>
+        <v>6.641398659413065</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.765706945280221</v>
+        <v>2.117868217712277</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.9887531426243</v>
+        <v>29.52869608487115</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.54969134814109</v>
+        <v>6.419550230070301</v>
       </c>
       <c r="M6">
-        <v>19.75299696029321</v>
+        <v>14.59039492800823</v>
       </c>
       <c r="N6">
-        <v>22.54288325619369</v>
+        <v>16.06673578410103</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.11354761473915</v>
+        <v>25.58062553957275</v>
       </c>
       <c r="C7">
-        <v>15.12197799558009</v>
+        <v>21.23074133508778</v>
       </c>
       <c r="D7">
-        <v>5.896149589001866</v>
+        <v>6.266425550677241</v>
       </c>
       <c r="E7">
-        <v>7.332434432967706</v>
+        <v>6.749748465295245</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.764033937122956</v>
+        <v>2.113068533604973</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.02030011106149</v>
+        <v>29.81782072169704</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.54449499062651</v>
+        <v>6.441867932527244</v>
       </c>
       <c r="M7">
-        <v>19.76849939914139</v>
+        <v>14.80015562659781</v>
       </c>
       <c r="N7">
-        <v>22.53362898426225</v>
+        <v>16.0378523125569</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.60740240115686</v>
+        <v>27.98053142219095</v>
       </c>
       <c r="C8">
-        <v>15.88681498597672</v>
+        <v>23.58030687876293</v>
       </c>
       <c r="D8">
-        <v>6.026768519995856</v>
+        <v>6.944712365382687</v>
       </c>
       <c r="E8">
-        <v>7.473649021392649</v>
+        <v>7.217282056353941</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.75701606822645</v>
+        <v>2.092223449649622</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.17719929919944</v>
+        <v>31.13393769760401</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.52526988136639</v>
+        <v>6.549435733722027</v>
       </c>
       <c r="M8">
-        <v>19.84800777921816</v>
+        <v>15.72797811849048</v>
       </c>
       <c r="N8">
-        <v>22.49693471891529</v>
+        <v>15.92462209600234</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.61611010436492</v>
+        <v>32.64307080526635</v>
       </c>
       <c r="C9">
-        <v>17.33053644191845</v>
+        <v>27.86562960047127</v>
       </c>
       <c r="D9">
-        <v>6.290940241805155</v>
+        <v>8.191123679257535</v>
       </c>
       <c r="E9">
-        <v>7.735261523358397</v>
+        <v>8.101090539144552</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.744552127366935</v>
+        <v>2.052043985258006</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.547841057315</v>
+        <v>33.87040930087883</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.50091609420936</v>
+        <v>6.795866018951186</v>
       </c>
       <c r="M9">
-        <v>20.04326924932568</v>
+        <v>17.55147410864137</v>
       </c>
       <c r="N9">
-        <v>22.43997235886866</v>
+        <v>15.76189140913652</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.37420667513496</v>
+        <v>36.01632844694277</v>
       </c>
       <c r="C10">
-        <v>18.34461137327153</v>
+        <v>30.85163156963694</v>
       </c>
       <c r="D10">
-        <v>6.487898922319217</v>
+        <v>9.053473684282171</v>
       </c>
       <c r="E10">
-        <v>7.91762031994913</v>
+        <v>8.737810962683774</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.736173983709579</v>
+        <v>2.022359727949527</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.85780658525731</v>
+        <v>35.99388042446935</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.49118419378899</v>
+        <v>7.001769115632247</v>
       </c>
       <c r="M10">
-        <v>20.2101038005443</v>
+        <v>19.22763321336526</v>
       </c>
       <c r="N10">
-        <v>22.40736228603944</v>
+        <v>15.6880153787972</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.7211856491044</v>
+        <v>37.52001178863485</v>
       </c>
       <c r="C11">
-        <v>18.79364858574137</v>
+        <v>32.18471153622993</v>
       </c>
       <c r="D11">
-        <v>6.577704837702053</v>
+        <v>9.437001994082356</v>
       </c>
       <c r="E11">
-        <v>7.998341107015956</v>
+        <v>9.027175676212256</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.732529094974152</v>
+        <v>2.008653568843344</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.00679360517035</v>
+        <v>36.99095942680972</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.48853291993664</v>
+        <v>7.10173942196097</v>
       </c>
       <c r="M11">
-        <v>20.29091804085894</v>
+        <v>20.03832722100272</v>
       </c>
       <c r="N11">
-        <v>22.39455507480939</v>
+        <v>15.66699866239519</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.85275227628241</v>
+        <v>38.08599959548636</v>
       </c>
       <c r="C12">
-        <v>18.96177078208355</v>
+        <v>32.68693926530346</v>
       </c>
       <c r="D12">
-        <v>6.611708233730114</v>
+        <v>9.581266238422677</v>
       </c>
       <c r="E12">
-        <v>8.028578536834234</v>
+        <v>9.136985589792083</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.731172589033133</v>
+        <v>2.003416775129514</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.06433838430628</v>
+        <v>37.3737828221272</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.48778448377348</v>
+        <v>7.140597907028361</v>
       </c>
       <c r="M12">
-        <v>20.32221229497195</v>
+        <v>20.34298165310874</v>
       </c>
       <c r="N12">
-        <v>22.38999861951777</v>
+        <v>15.66112963861047</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.82441139480975</v>
+        <v>37.9642375995232</v>
       </c>
       <c r="C13">
-        <v>18.92565022720068</v>
+        <v>32.57887101109637</v>
       </c>
       <c r="D13">
-        <v>6.604385708617768</v>
+        <v>9.550234213199223</v>
       </c>
       <c r="E13">
-        <v>8.022081160698358</v>
+        <v>9.113320511304313</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.731463684289684</v>
+        <v>2.004547001745128</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.05189533760593</v>
+        <v>37.29108636881891</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.487934305388</v>
+        <v>7.13218271734539</v>
       </c>
       <c r="M13">
-        <v>20.31544202158909</v>
+        <v>20.27746256133664</v>
       </c>
       <c r="N13">
-        <v>22.39096685707552</v>
+        <v>15.66229565033177</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.73200698160717</v>
+        <v>37.56663792913575</v>
       </c>
       <c r="C14">
-        <v>18.80751936109717</v>
+        <v>32.22607496707825</v>
       </c>
       <c r="D14">
-        <v>6.580502591781577</v>
+        <v>9.448888259075906</v>
       </c>
       <c r="E14">
-        <v>8.000835414122324</v>
+        <v>9.036203288901664</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.732417019830474</v>
+        <v>2.008223781229666</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.01150539787078</v>
+        <v>37.02234396538725</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.48846622338166</v>
+        <v>7.104915627585344</v>
       </c>
       <c r="M14">
-        <v>20.29347887146867</v>
+        <v>20.06343451668697</v>
       </c>
       <c r="N14">
-        <v>22.39417432260512</v>
+        <v>15.66647213649559</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.67542533676466</v>
+        <v>37.32268475161711</v>
       </c>
       <c r="C15">
-        <v>18.73490672063639</v>
+        <v>32.00967633260503</v>
       </c>
       <c r="D15">
-        <v>6.565871960722689</v>
+        <v>9.386694277527871</v>
       </c>
       <c r="E15">
-        <v>7.987778593351457</v>
+        <v>8.989006574821326</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.733004050652058</v>
+        <v>2.010469269383952</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.98691145112826</v>
+        <v>36.85844258185259</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.48882532201491</v>
+        <v>7.088347431393002</v>
       </c>
       <c r="M15">
-        <v>20.2801153896033</v>
+        <v>19.93205049053824</v>
       </c>
       <c r="N15">
-        <v>22.39617724641516</v>
+        <v>15.66931171455136</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.35156208715942</v>
+        <v>35.91751974955435</v>
       </c>
       <c r="C16">
-        <v>18.315005208286</v>
+        <v>30.76408809003692</v>
       </c>
       <c r="D16">
-        <v>6.482031143229813</v>
+        <v>9.028256443120355</v>
       </c>
       <c r="E16">
-        <v>7.912299323814723</v>
+        <v>8.718916495007377</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.73641551736671</v>
+        <v>2.023249971766917</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.84822878783662</v>
+        <v>35.92940608465572</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.49139321212103</v>
+        <v>6.995370346846978</v>
       </c>
       <c r="M16">
-        <v>20.20492008002874</v>
+        <v>19.17429194728181</v>
       </c>
       <c r="N16">
-        <v>22.40824021818311</v>
+        <v>15.68966484363193</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.15333026064725</v>
+        <v>35.04824636160574</v>
       </c>
       <c r="C17">
-        <v>18.05415057965463</v>
+        <v>29.99416868662578</v>
       </c>
       <c r="D17">
-        <v>6.430626235484764</v>
+        <v>8.806311942210522</v>
       </c>
       <c r="E17">
-        <v>7.8654166608647</v>
+        <v>8.553326649308168</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.73855081844337</v>
+        <v>2.031027313418177</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.76518143971042</v>
+        <v>35.36792091041303</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.49342351284188</v>
+        <v>6.940007945079726</v>
       </c>
       <c r="M17">
-        <v>20.16003950444234</v>
+        <v>18.70462816290316</v>
       </c>
       <c r="N17">
-        <v>22.41616099797293</v>
+        <v>15.70555744626301</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.03951948215953</v>
+        <v>34.5452886778244</v>
       </c>
       <c r="C18">
-        <v>17.90296682729386</v>
+        <v>29.54887832747179</v>
       </c>
       <c r="D18">
-        <v>6.401081081080674</v>
+        <v>8.67781058342419</v>
       </c>
       <c r="E18">
-        <v>7.838241082159385</v>
+        <v>8.458037074515198</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.739794658115768</v>
+        <v>2.035482790877856</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.71816751822355</v>
+        <v>35.04783801985148</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.49475843015059</v>
+        <v>6.908751523585127</v>
       </c>
       <c r="M18">
-        <v>20.13468954429123</v>
+        <v>18.43254968871276</v>
       </c>
       <c r="N18">
-        <v>22.42090752711835</v>
+        <v>15.71586390674141</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.00102470220538</v>
+        <v>34.37445796212331</v>
       </c>
       <c r="C19">
-        <v>17.85158661256949</v>
+        <v>29.39766085149061</v>
       </c>
       <c r="D19">
-        <v>6.391082367209426</v>
+        <v>8.634149216500175</v>
       </c>
       <c r="E19">
-        <v>7.82900410842365</v>
+        <v>8.425758387571623</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.740218498128564</v>
+        <v>2.036988748201661</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.70237930496248</v>
+        <v>34.93993611104197</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.49523911019085</v>
+        <v>6.89826680922094</v>
       </c>
       <c r="M19">
-        <v>20.12618666714145</v>
+        <v>18.34007989901729</v>
       </c>
       <c r="N19">
-        <v>22.42254731839924</v>
+        <v>15.71954602233721</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.17441192279211</v>
+        <v>35.14108329843702</v>
       </c>
       <c r="C20">
-        <v>18.08203889527938</v>
+        <v>30.07637489603542</v>
       </c>
       <c r="D20">
-        <v>6.436096392448699</v>
+        <v>8.830023822851874</v>
       </c>
       <c r="E20">
-        <v>7.870429187453008</v>
+        <v>8.570957034213656</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.738321891485984</v>
+        <v>2.030201363705149</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.77394421564732</v>
+        <v>35.4273901840285</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.4931900837374</v>
+        <v>6.945840036070984</v>
       </c>
       <c r="M20">
-        <v>20.16476919077426</v>
+        <v>18.75482174660382</v>
       </c>
       <c r="N20">
-        <v>22.41529806682195</v>
+        <v>15.703743181383</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.75914472397474</v>
+        <v>37.68350627627151</v>
       </c>
       <c r="C21">
-        <v>18.84227045644869</v>
+        <v>32.3297601984062</v>
       </c>
       <c r="D21">
-        <v>6.587518020577794</v>
+        <v>9.478679729829711</v>
       </c>
       <c r="E21">
-        <v>8.007084819429968</v>
+        <v>9.058845595186147</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.732136359442817</v>
+        <v>2.007145243443812</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.02333850448517</v>
+        <v>37.10113018806101</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.48830304969789</v>
+        <v>7.112896570637559</v>
       </c>
       <c r="M21">
-        <v>20.29991134231054</v>
+        <v>20.12635809393942</v>
       </c>
       <c r="N21">
-        <v>22.39322423586498</v>
+        <v>15.66518618629703</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14225297670295</v>
+        <v>39.32582280087834</v>
       </c>
       <c r="C22">
-        <v>19.32788556922589</v>
+        <v>33.78810652072676</v>
       </c>
       <c r="D22">
-        <v>6.686441696534928</v>
+        <v>9.897143327702265</v>
       </c>
       <c r="E22">
-        <v>8.094471412458743</v>
+        <v>9.379255054876372</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.728232010205743</v>
+        <v>1.991794277638224</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.19288775271444</v>
+        <v>38.22617459064202</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.48659862696417</v>
+        <v>7.227979220159002</v>
       </c>
       <c r="M22">
-        <v>20.39225784684667</v>
+        <v>21.00946412270276</v>
       </c>
       <c r="N22">
-        <v>22.38050848588662</v>
+        <v>15.65233963016238</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.93773618301501</v>
+        <v>38.45065372773078</v>
       </c>
       <c r="C23">
-        <v>19.06977800970495</v>
+        <v>33.01066208756156</v>
       </c>
       <c r="D23">
-        <v>6.633658784729016</v>
+        <v>9.674189734586612</v>
       </c>
       <c r="E23">
-        <v>8.048010394224299</v>
+        <v>9.207994475382794</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.730303247398366</v>
+        <v>2.000020018074677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.10180378645524</v>
+        <v>37.62254189128176</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.48737197544478</v>
+        <v>7.165979775664407</v>
       </c>
       <c r="M23">
-        <v>20.34260820279565</v>
+        <v>20.53912885147751</v>
       </c>
       <c r="N23">
-        <v>22.38713797430797</v>
+        <v>15.65795810286437</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.16488040949577</v>
+        <v>35.09912176207819</v>
       </c>
       <c r="C24">
-        <v>18.06943436019825</v>
+        <v>30.0392178099466</v>
       </c>
       <c r="D24">
-        <v>6.433623306304082</v>
+        <v>8.819306513814546</v>
       </c>
       <c r="E24">
-        <v>7.868163715369134</v>
+        <v>8.562986636538833</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.73842533880667</v>
+        <v>2.030574823580514</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.76998028583325</v>
+        <v>35.40049570116015</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.49329509479463</v>
+        <v>6.943201572476548</v>
       </c>
       <c r="M24">
-        <v>20.16262948901749</v>
+        <v>18.73213569280085</v>
       </c>
       <c r="N24">
-        <v>22.4156875977073</v>
+        <v>15.70455978784609</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.33969700363364</v>
+        <v>31.36798301572772</v>
       </c>
       <c r="C25">
-        <v>16.94735122459267</v>
+        <v>26.73772781832353</v>
       </c>
       <c r="D25">
-        <v>6.218825491111494</v>
+        <v>7.864143614204198</v>
       </c>
       <c r="E25">
-        <v>7.666182077543512</v>
+        <v>7.864884534405996</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.747786248990258</v>
+        <v>2.062893841783069</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.44089830721658</v>
+        <v>33.11198092658228</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.50607280430408</v>
+        <v>6.725098813771724</v>
       </c>
       <c r="M25">
-        <v>19.98629094293643</v>
+        <v>17.057719659815</v>
       </c>
       <c r="N25">
-        <v>22.45376670094358</v>
+        <v>15.79867713702767</v>
       </c>
       <c r="O25">
         <v>0</v>
